--- a/HTML/0 Excel SRC Files/CS E.xlsx
+++ b/HTML/0 Excel SRC Files/CS E.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A8225F-C0CB-46F3-9629-63ED6E25918E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE7B4A9-AE77-4E43-83A7-13F6F9799B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" tabRatio="779" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -2540,8 +2540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="35.25" customHeight="1"/>
@@ -3220,9 +3220,10 @@
     <hyperlink ref="F18" r:id="rId124" display="https://www.youtube.com/user/abdallahelsokary/videos" xr:uid="{3B16B5AD-D92E-4C5C-9CEC-A574C1C806CC}"/>
     <hyperlink ref="G14" r:id="rId125" xr:uid="{2D33AA61-AE75-4D18-8FBD-79C41FAAB066}"/>
     <hyperlink ref="K16" location="Notes!A1" display="Notes" xr:uid="{04F7CB72-3A04-49F6-AD31-CB02788C3CF5}"/>
+    <hyperlink ref="E9" r:id="rId126" xr:uid="{EDA54752-D660-4AC9-909D-9FD3C1B106C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId126"/>
+  <pageSetup orientation="portrait" r:id="rId127"/>
 </worksheet>
 </file>
 
@@ -3758,7 +3759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CF493D-6533-45B8-B1A9-170AE766D772}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/HTML/0 Excel SRC Files/CS E.xlsx
+++ b/HTML/0 Excel SRC Files/CS E.xlsx
@@ -1,30 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE7B4A9-AE77-4E43-83A7-13F6F9799B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80AE351-E6DE-48CE-9DA6-DD16929B0DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
     <sheet name="Notes" sheetId="17" r:id="rId2"/>
-    <sheet name="SEC" sheetId="16" r:id="rId3"/>
-    <sheet name="OPL" sheetId="14" r:id="rId4"/>
-    <sheet name="UI-UX" sheetId="13" r:id="rId5"/>
-    <sheet name="Problem Solving" sheetId="11" r:id="rId6"/>
-    <sheet name="$" sheetId="2" r:id="rId7"/>
-    <sheet name="JS" sheetId="3" r:id="rId8"/>
-    <sheet name="3DP" sheetId="5" r:id="rId9"/>
-    <sheet name="Tips" sheetId="9" r:id="rId10"/>
-    <sheet name="Software" sheetId="7" r:id="rId11"/>
-    <sheet name="More" sheetId="15" r:id="rId12"/>
+    <sheet name="OPL" sheetId="14" r:id="rId3"/>
+    <sheet name="UI-UX" sheetId="13" r:id="rId4"/>
+    <sheet name="Problem Solving" sheetId="11" r:id="rId5"/>
+    <sheet name="$" sheetId="2" r:id="rId6"/>
+    <sheet name="JS" sheetId="3" r:id="rId7"/>
+    <sheet name="3DP" sheetId="5" r:id="rId8"/>
+    <sheet name="Tips" sheetId="9" r:id="rId9"/>
+    <sheet name="Software" sheetId="7" r:id="rId10"/>
+    <sheet name="More" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="403">
   <si>
     <t>PHP Ref</t>
   </si>
@@ -796,96 +795,6 @@
   </si>
   <si>
     <t>SEC</t>
-  </si>
-  <si>
-    <t>https://www.shodan.io/</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/</t>
-  </si>
-  <si>
-    <t>https://www.virustotal.com/en/gui</t>
-  </si>
-  <si>
-    <t>https://nmap.org/docs.html</t>
-  </si>
-  <si>
-    <t>https://www.wireshark.org/</t>
-  </si>
-  <si>
-    <t>https://owasp.org/</t>
-  </si>
-  <si>
-    <t>https://checkleaked.cc/</t>
-  </si>
-  <si>
-    <t>https://thehackernews.com/?utm_source=feedspot&amp;m=1</t>
-  </si>
-  <si>
-    <t>https://leak-lookup.com/</t>
-  </si>
-  <si>
-    <t>https://pastebin.com/</t>
-  </si>
-  <si>
-    <t>https://breachdirectory.org/</t>
-  </si>
-  <si>
-    <t>https://www.xml-sitemaps.com/</t>
-  </si>
-  <si>
-    <t>https://ctflearn.com/user/login?next=%2Fdashboard</t>
-  </si>
-  <si>
-    <t>https://hashkiller.io/listmanager</t>
-  </si>
-  <si>
-    <t>https://vercel.com/docs/errors/platform-error-codes#deployment_not_found</t>
-  </si>
-  <si>
-    <t>https://haveibeenpwned.com/</t>
-  </si>
-  <si>
-    <t>https://rocketreach.co/</t>
-  </si>
-  <si>
-    <t>https://www.snort.org/#documents</t>
-  </si>
-  <si>
-    <t>http://docs.w3af.org/en/latest/</t>
-  </si>
-  <si>
-    <t>https://www.metasploit.com/</t>
-  </si>
-  <si>
-    <t>https://www.aircrack-ng.org/doku.php?id=getting_started</t>
-  </si>
-  <si>
-    <t>https://defcon.org/</t>
-  </si>
-  <si>
-    <t>https://html5sec.org/</t>
-  </si>
-  <si>
-    <t>https://kalilinuxtutorials.com/h8mail-email-password-breach/</t>
-  </si>
-  <si>
-    <t>https://www.invicti.com/</t>
-  </si>
-  <si>
-    <t>https://www.acunetix.com/</t>
-  </si>
-  <si>
-    <t>https://sqlninja.sourceforge.net/</t>
-  </si>
-  <si>
-    <t>https://auth.lusha.com/login?returnUrl=https%3A%2F%2Fdashboard.lusha.com%2Fprospecting</t>
-  </si>
-  <si>
-    <t>https://securitytrails.com/blog/google-hacking-techniques</t>
-  </si>
-  <si>
-    <t>https://www.tenable.com/products/nessus</t>
   </si>
   <si>
     <t>CSS Grid Garden</t>
@@ -1984,7 +1893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2057,9 +1966,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2192,12 +2098,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2541,544 +2441,544 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="35.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="43" customWidth="1"/>
-    <col min="2" max="2" width="20" style="43" customWidth="1"/>
-    <col min="3" max="3" width="25" style="43" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="43" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="43" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="43" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="43" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="43" customWidth="1"/>
-    <col min="9" max="9" width="18" style="43" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="43" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="43" customWidth="1"/>
-    <col min="12" max="16384" width="25.140625" style="43"/>
+    <col min="1" max="1" width="20.7109375" style="42" customWidth="1"/>
+    <col min="2" max="2" width="20" style="42" customWidth="1"/>
+    <col min="3" max="3" width="25" style="42" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="42" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="42" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="42" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="42" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="18" style="42" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="42" customWidth="1"/>
+    <col min="12" max="16384" width="25.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="41" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="43" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1">
-      <c r="A3" s="71" t="s">
-        <v>416</v>
-      </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="44" t="s">
-        <v>418</v>
+      <c r="A3" s="70" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="43" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A5" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>342</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A6" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="I6" s="50" t="s">
         <v>340</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="J6" s="48" t="s">
         <v>341</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>342</v>
-      </c>
-      <c r="D4" s="49" t="s">
+      <c r="K6" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A7" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="29.25" customHeight="1">
+      <c r="A8" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+    </row>
+    <row r="9" spans="1:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A9" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A10" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>309</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A11" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="K11" s="54" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A12" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>298</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="J12" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A13" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>353</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>348</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="I13" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="K13" s="54" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A14" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="B14" s="54" t="s">
         <v>343</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="C14" s="48" t="s">
         <v>344</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="D14" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="G4" s="51" t="s">
-        <v>346</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>347</v>
-      </c>
-      <c r="I4" s="51" t="s">
+      <c r="E14" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>354</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="I14" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="27" customHeight="1">
+      <c r="A15" s="69" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="46" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A16" s="58" t="s">
         <v>361</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="B16" s="59" t="s">
+        <v>362</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>364</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>365</v>
+      </c>
+      <c r="G16" s="60" t="s">
+        <v>368</v>
+      </c>
+      <c r="H16" s="61" t="s">
+        <v>367</v>
+      </c>
+      <c r="I16" s="60" t="s">
         <v>369</v>
       </c>
-      <c r="K4" s="44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A5" s="52" t="s">
-        <v>348</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>350</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>351</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>352</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>360</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>362</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>364</v>
-      </c>
-      <c r="I5" s="49" t="s">
+      <c r="J16" s="44"/>
+      <c r="K16" s="41" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="31.5" customHeight="1">
+      <c r="A17" s="71" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+    </row>
+    <row r="18" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A18" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="J5" s="54" t="s">
-        <v>368</v>
-      </c>
-      <c r="K5" s="44" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A6" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>354</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>355</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>358</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>359</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>366</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>370</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>371</v>
-      </c>
-      <c r="K6" s="44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A7" s="46" t="s">
-        <v>363</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>367</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A8" s="70" t="s">
-        <v>417</v>
-      </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-    </row>
-    <row r="9" spans="1:11" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A9" s="48" t="s">
-        <v>292</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>293</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>295</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>299</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>306</v>
-      </c>
-      <c r="I9" s="51" t="s">
-        <v>305</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>330</v>
-      </c>
-      <c r="K9" s="51" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A10" s="52" t="s">
-        <v>304</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>301</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>302</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>303</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>307</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="H10" s="51" t="s">
-        <v>315</v>
-      </c>
-      <c r="I10" s="49" t="s">
-        <v>314</v>
-      </c>
-      <c r="J10" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="K10" s="49" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A11" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>309</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>310</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>311</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>313</v>
-      </c>
-      <c r="F11" s="52" t="s">
-        <v>312</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>316</v>
-      </c>
-      <c r="H11" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="I11" s="56" t="s">
-        <v>326</v>
-      </c>
-      <c r="J11" s="49" t="s">
-        <v>335</v>
-      </c>
-      <c r="K11" s="55" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A12" s="49" t="s">
-        <v>317</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>318</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>321</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>320</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>323</v>
-      </c>
-      <c r="G12" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="H12" s="51" t="s">
-        <v>331</v>
-      </c>
-      <c r="I12" s="52" t="s">
-        <v>336</v>
-      </c>
-      <c r="J12" s="51" t="s">
-        <v>334</v>
-      </c>
-      <c r="K12" s="49" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A13" s="55" t="s">
-        <v>324</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>325</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>329</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>378</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>377</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>381</v>
-      </c>
-      <c r="I13" s="58" t="s">
-        <v>419</v>
-      </c>
-      <c r="J13" s="49" t="s">
-        <v>379</v>
-      </c>
-      <c r="K13" s="55" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A14" s="49" t="s">
+      <c r="C18" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>374</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="F18" s="62" t="s">
         <v>376</v>
       </c>
-      <c r="B14" s="55" t="s">
-        <v>373</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>374</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>375</v>
-      </c>
-      <c r="E14" s="49" t="s">
-        <v>380</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>384</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>421</v>
-      </c>
-      <c r="H14" s="55" t="s">
-        <v>387</v>
-      </c>
-      <c r="I14" s="49" t="s">
-        <v>388</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>389</v>
-      </c>
-      <c r="K14" s="49" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="27" customHeight="1">
-      <c r="A15" s="70" t="s">
-        <v>390</v>
-      </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="47" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A16" s="59" t="s">
-        <v>391</v>
-      </c>
-      <c r="B16" s="60" t="s">
-        <v>392</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>393</v>
-      </c>
-      <c r="D16" s="60" t="s">
-        <v>394</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>396</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>395</v>
-      </c>
-      <c r="G16" s="61" t="s">
-        <v>398</v>
-      </c>
-      <c r="H16" s="62" t="s">
-        <v>397</v>
-      </c>
-      <c r="I16" s="61" t="s">
-        <v>399</v>
-      </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="42" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="31.5" customHeight="1">
-      <c r="A17" s="72" t="s">
-        <v>400</v>
-      </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-    </row>
-    <row r="18" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A18" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="B18" s="63" t="s">
-        <v>402</v>
-      </c>
-      <c r="C18" s="63" t="s">
-        <v>403</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>404</v>
-      </c>
-      <c r="E18" s="63" t="s">
-        <v>405</v>
-      </c>
-      <c r="F18" s="63" t="s">
-        <v>406</v>
-      </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
     </row>
     <row r="19" spans="1:11" ht="24.75" customHeight="1"/>
     <row r="20" spans="1:11" ht="35.25" customHeight="1">
-      <c r="K20" s="45"/>
+      <c r="K20" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3228,257 +3128,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944D90D9-B79E-4B38-906B-E7C0FA3A721E}">
-  <dimension ref="A1:P11"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="65.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="38.25" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-    </row>
-    <row r="2" spans="1:16" ht="38.25" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="1:16" ht="38.25" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-    </row>
-    <row r="4" spans="1:16" ht="38.25" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:16" ht="38.25" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" xr:uid="{41B87B05-920C-4A8F-B338-4F289D0F3967}"/>
-    <hyperlink ref="A1" r:id="rId2" xr:uid="{C46F0DFB-1FE5-4AF2-A145-119F42B20B26}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{C0AED85A-028F-4030-8CC7-0C8F8AA431BF}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{A8620F22-D3CD-482D-AD52-38EAEE207191}"/>
-    <hyperlink ref="A5" r:id="rId5" location="programming" xr:uid="{486689D9-7D68-4451-B397-355BD51B966B}"/>
-    <hyperlink ref="C2" r:id="rId6" xr:uid="{013F39A5-7DFB-4FB2-89DA-863CFB5E9546}"/>
-    <hyperlink ref="C1" r:id="rId7" display="Make Keywords Alert With Google" xr:uid="{291409F9-B366-4A9D-AFAB-16020AEA45EC}"/>
-    <hyperlink ref="C3" r:id="rId8" xr:uid="{D1FF7D4C-C3B8-481D-AF0B-41551AAD5A59}"/>
-    <hyperlink ref="A4" r:id="rId9" display="Preparing for the Systems" xr:uid="{AABDDB4C-0B25-45E1-B1D9-E99B1DEACFC8}"/>
-    <hyperlink ref="D1" location="'0'!A1" display="Back" xr:uid="{2391EB39-9979-4CD0-A0E3-6AAEDED0F11A}"/>
-    <hyperlink ref="D2" r:id="rId10" display="https://www.computerscience.org/careers" xr:uid="{441D6B98-3851-4BB2-8529-6528FDC5C18E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE504DF1-2046-4C24-8338-36D31BC82292}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -3506,10 +3155,10 @@
         <v>79</v>
       </c>
       <c r="D1" s="19"/>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="91"/>
+      <c r="F1" s="88"/>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1">
       <c r="A2" s="19" t="s">
@@ -3755,7 +3404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CF493D-6533-45B8-B1A9-170AE766D772}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -3774,42 +3423,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="42" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="46.5" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="G2" s="31"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:10" ht="51.75" customHeight="1">
       <c r="G3" s="22" t="s">
@@ -3822,123 +3471,123 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="45.75" customHeight="1">
-      <c r="A5" s="92" t="s">
-        <v>420</v>
-      </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="93"/>
+      <c r="A5" s="89" t="s">
+        <v>390</v>
+      </c>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="90"/>
       <c r="G5" s="22" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="33" customHeight="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="33" customHeight="1">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="93"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="90"/>
     </row>
     <row r="8" spans="1:10" ht="33" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33" customHeight="1">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="33" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:10" ht="33" customHeight="1">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="28"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:10" ht="33" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:10" ht="33" customHeight="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="33" customHeight="1">
       <c r="A14" s="14"/>
@@ -3949,55 +3598,55 @@
       <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="33" customHeight="1">
-      <c r="A15" s="72" t="s">
-        <v>407</v>
-      </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
+      <c r="A15" s="71" t="s">
+        <v>377</v>
+      </c>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
     </row>
     <row r="16" spans="1:10" ht="33" customHeight="1">
-      <c r="A16" s="61" t="s">
-        <v>408</v>
-      </c>
-      <c r="B16" s="64" t="s">
-        <v>409</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="61" t="s">
+      <c r="A16" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>379</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="60" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="33" customHeight="1">
       <c r="B18" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="33" customHeight="1">
       <c r="B19" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="33" customHeight="1">
       <c r="B20" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="33" customHeight="1">
       <c r="B21" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -4065,34 +3714,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5">
-      <c r="A1" s="69" t="s">
-        <v>428</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>427</v>
+      <c r="A1" s="68" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.5">
-      <c r="B2" s="68" t="s">
-        <v>426</v>
+      <c r="B2" s="67" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.5">
-      <c r="B3" s="68" t="s">
-        <v>425</v>
+      <c r="B3" s="67" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.5">
-      <c r="B4" s="68" t="s">
-        <v>424</v>
+      <c r="B4" s="67" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.5">
-      <c r="B5" s="67"/>
+      <c r="B5" s="66"/>
     </row>
     <row r="6" spans="1:2" ht="117">
-      <c r="B6" s="66" t="s">
-        <v>423</v>
+      <c r="B6" s="65" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -4101,375 +3750,164 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404B07CA-D3C7-42D7-902A-9BCAB1F5301C}">
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="30.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="68.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="73" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="74"/>
-    </row>
-    <row r="3" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A3" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A4" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-    </row>
-    <row r="5" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A5" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A6" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A9" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A10" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-    </row>
-    <row r="11" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A11" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A12" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A13" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A14" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-    </row>
-    <row r="16" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-    </row>
-    <row r="17" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:F2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F1" location="Characters!A1" display="Back" xr:uid="{CB9D591C-0566-4239-B60D-49D0F9543461}"/>
-    <hyperlink ref="F1:F2" location="'0'!A1" display="Back" xr:uid="{74D97B43-7F42-4B7E-A198-98F5131DC419}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A8F137-C31D-4F40-A0FE-675087E187CE}">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="53.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="62.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="38" customWidth="1"/>
-    <col min="4" max="11" width="9.140625" style="38"/>
-    <col min="12" max="12" width="16.7109375" style="38" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="38"/>
+    <col min="1" max="1" width="62.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="37" customWidth="1"/>
+    <col min="4" max="11" width="9.140625" style="37"/>
+    <col min="12" max="12" width="16.7109375" style="37" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>411</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>412</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>414</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>415</v>
-      </c>
-      <c r="J1" s="75" t="s">
+      <c r="A1" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="J1" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="76"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>410</v>
+      <c r="C2" s="36" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18.75">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="79"/>
-      <c r="L3" s="39"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
+      <c r="L3" s="38"/>
     </row>
     <row r="4" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="41"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="41"/>
+      <c r="L6" s="40"/>
     </row>
     <row r="7" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="41"/>
+      <c r="L7" s="40"/>
     </row>
     <row r="8" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="L11" s="41"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="L12" s="41"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:12" ht="53.25" customHeight="1">
-      <c r="L14" s="41"/>
+      <c r="L14" s="40"/>
     </row>
     <row r="15" spans="1:12" ht="53.25" customHeight="1">
-      <c r="L15" s="41"/>
+      <c r="L15" s="40"/>
     </row>
     <row r="16" spans="1:12" ht="53.25" customHeight="1">
-      <c r="L16" s="41"/>
+      <c r="L16" s="40"/>
     </row>
     <row r="17" spans="12:12" ht="53.25" customHeight="1">
-      <c r="L17" s="41"/>
+      <c r="L17" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4492,7 +3930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C88D73-EAF2-466A-B8F2-2CB06EEB36D8}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -4502,202 +3940,202 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="81.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="20.42578125" style="35"/>
+    <col min="1" max="16384" width="20.42578125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="81.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="81.75" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="J2" s="33" t="s">
-        <v>289</v>
+      <c r="J2" s="32" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="81.75" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>287</v>
+      <c r="H3" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="1:10" ht="81.75" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="H5" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="J5" s="33" t="s">
+      <c r="H5" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="J5" s="32" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="81.75" customHeight="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="J6" s="33" t="s">
-        <v>288</v>
+      <c r="D6" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="J6" s="32" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
     </row>
     <row r="8" spans="1:10" ht="81.75" customHeight="1">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="J8" s="33" t="s">
-        <v>285</v>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="J8" s="32" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
     </row>
     <row r="10" spans="1:10" ht="81.75" customHeight="1">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
     </row>
     <row r="11" spans="1:10" ht="81.75" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4757,7 +4195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECE076C-BE8B-4E45-A6A9-3829C5090764}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4793,7 +4231,7 @@
       <c r="G1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="31" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4839,7 +4277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0870F34A-33AD-43D9-9529-E493C8468E83}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -4876,7 +4314,7 @@
         <v>14</v>
       </c>
       <c r="F1" s="15"/>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="31" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5031,7 +4469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBDEB62-6BA5-4C28-B051-2DE4BB52AF06}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -5073,7 +4511,7 @@
         <v>187</v>
       </c>
       <c r="J1" s="17"/>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="31" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5105,17 +4543,17 @@
       <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" ht="2.25" customHeight="1">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="89"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="1:11" ht="70.5" customHeight="1">
       <c r="A4" s="17" t="s">
@@ -5166,17 +4604,17 @@
       <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" ht="1.5" customHeight="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="89"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="86"/>
     </row>
     <row r="7" spans="1:11" ht="72.75" customHeight="1">
       <c r="A7" s="17" t="s">
@@ -5223,13 +4661,13 @@
       <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="85"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -5238,13 +4676,13 @@
       <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" ht="75.75" customHeight="1">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="84"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -5310,7 +4748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD1A4D8-C98B-42C3-92B7-1FF5A02E82A7}">
   <dimension ref="A1:L32"/>
   <sheetViews>
@@ -5338,10 +4776,10 @@
         <v>28</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="91"/>
+      <c r="L1" s="88"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
@@ -5551,4 +4989,255 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944D90D9-B79E-4B38-906B-E7C0FA3A721E}">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="65.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{41B87B05-920C-4A8F-B338-4F289D0F3967}"/>
+    <hyperlink ref="A1" r:id="rId2" xr:uid="{C46F0DFB-1FE5-4AF2-A145-119F42B20B26}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{C0AED85A-028F-4030-8CC7-0C8F8AA431BF}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{A8620F22-D3CD-482D-AD52-38EAEE207191}"/>
+    <hyperlink ref="A5" r:id="rId5" location="programming" xr:uid="{486689D9-7D68-4451-B397-355BD51B966B}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{013F39A5-7DFB-4FB2-89DA-863CFB5E9546}"/>
+    <hyperlink ref="C1" r:id="rId7" display="Make Keywords Alert With Google" xr:uid="{291409F9-B366-4A9D-AFAB-16020AEA45EC}"/>
+    <hyperlink ref="C3" r:id="rId8" xr:uid="{D1FF7D4C-C3B8-481D-AF0B-41551AAD5A59}"/>
+    <hyperlink ref="A4" r:id="rId9" display="Preparing for the Systems" xr:uid="{AABDDB4C-0B25-45E1-B1D9-E99B1DEACFC8}"/>
+    <hyperlink ref="D1" location="'0'!A1" display="Back" xr:uid="{2391EB39-9979-4CD0-A0E3-6AAEDED0F11A}"/>
+    <hyperlink ref="D2" r:id="rId10" display="https://www.computerscience.org/careers" xr:uid="{441D6B98-3851-4BB2-8529-6528FDC5C18E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>